--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -9,26 +9,18 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="基金受益憑證" sheetId="9" r:id="rId9"/>
-    <sheet name="其他有價證券" sheetId="10" r:id="rId10"/>
-    <sheet name="具有相當價值之財產" sheetId="11" r:id="rId11"/>
-    <sheet name="保險" sheetId="12" r:id="rId12"/>
-    <sheet name="債權" sheetId="13" r:id="rId13"/>
-    <sheet name="債務" sheetId="14" r:id="rId14"/>
-    <sheet name="事業投資" sheetId="15" r:id="rId15"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
   <si>
     <t>土地坐落</t>
   </si>
@@ -144,72 +136,33 @@
     <t>7,650,000(土 地及建物之總 價）</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>總嘲數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
+    <t>TOYOTAPREVIA</t>
+  </si>
+  <si>
+    <t>100年10月25曰</t>
+  </si>
+  <si>
+    <t>納智捷G91SPCA</t>
+  </si>
+  <si>
+    <t>100 年 04 月28 H</t>
+  </si>
+  <si>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
+    <t>種類</t>
+  </si>
+  <si>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTAPREVIA</t>
-  </si>
-  <si>
-    <t>100年10月25曰</t>
-  </si>
-  <si>
-    <t>納智捷G91SPCA</t>
-  </si>
-  <si>
-    <t>100 年 04 月28 H</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>幣</t>
-  </si>
-  <si>
-    <t>別</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -243,40 +196,37 @@
     <t>孫◦揚</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>股數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
   </si>
   <si>
     <t>志城投資股份有限公司</t>
   </si>
   <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
+    <t>2012-03-03</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -367,63 +317,6 @@
   </si>
   <si>
     <t>被保險人：孫〇揚，年繳 OT$35,788，繳費期間：20年， 保險期間：終身，投保日期： 96.4.3</t>
-  </si>
-  <si>
-    <t>債權</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>務</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>地</t>
-  </si>
-  <si>
-    <t>址</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>事業</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>資</t>
-  </si>
-  <si>
-    <t>事</t>
-  </si>
-  <si>
-    <t>業</t>
-  </si>
-  <si>
-    <t>金額</t>
   </si>
 </sst>
 </file>
@@ -894,500 +787,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>104</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>106</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>107</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>108</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2">
-        <v>210000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>113</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>114</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>115</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>116</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>117</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>118</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>120</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>121</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
@@ -1556,45 +955,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1603,7 +963,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
@@ -1612,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -1626,7 +986,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>2198</v>
@@ -1635,13 +995,243 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>1012000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2850602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>316432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>46188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>97631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2">
+        <v>315342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2">
+        <v>145778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4000000</v>
       </c>
     </row>
   </sheetData>
@@ -1651,33 +1241,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23816</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2">
+        <v>238160</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -1687,33 +1315,109 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>107</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>210000</v>
       </c>
     </row>
   </sheetData>
@@ -1723,332 +1427,160 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2850602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>115</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>316432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>46188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>97631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>315342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>145778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>60</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>61</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>4000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>23816</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="2">
-        <v>238160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>土地坐落</t>
   </si>
@@ -214,6 +214,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
   </si>
   <si>
     <t>志城投資股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-03-03</t>
@@ -1241,13 +1247,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1275,13 +1281,16 @@
       <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1299,12 +1308,15 @@
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>919</v>
       </c>
     </row>
@@ -1323,16 +1335,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1340,7 +1352,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1357,7 +1369,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1374,7 +1386,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1391,7 +1403,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1408,7 +1420,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1435,16 +1447,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1452,16 +1464,16 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1469,16 +1481,16 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1486,16 +1498,16 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1503,16 +1515,16 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1520,16 +1532,16 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1537,16 +1549,16 @@
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1554,16 +1566,16 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1571,16 +1583,16 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
   <si>
     <t>土地坐落</t>
   </si>
@@ -217,6 +217,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -226,13 +229,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>志城投資股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-03-03</t>
+  </si>
+  <si>
+    <t>tmpc261</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -1247,13 +1262,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1284,13 +1299,22 @@
       <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1308,16 +1332,25 @@
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>919</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1335,16 +1368,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1352,7 +1385,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1369,7 +1402,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1386,7 +1419,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1403,7 +1436,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1420,7 +1453,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1447,16 +1480,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1464,16 +1497,16 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1481,16 +1514,16 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1498,16 +1531,16 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1515,16 +1548,16 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1532,16 +1565,16 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1549,16 +1582,16 @@
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1566,16 +1599,16 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1583,16 +1616,16 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,9 +20,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段六小段05800000地號</t>
+  </si>
+  <si>
+    <t>新北市永和區永安段09430000地號</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段06090000地號</t>
+  </si>
+  <si>
+    <t>10000分之116</t>
+  </si>
+  <si>
+    <t>2404分之153</t>
+  </si>
+  <si>
+    <t>100000分之292</t>
+  </si>
+  <si>
+    <t>陳端梅</t>
+  </si>
+  <si>
+    <t>孫大千</t>
+  </si>
+  <si>
+    <t>92年10月15R</t>
+  </si>
+  <si>
+    <t>72年08月05日</t>
+  </si>
+  <si>
+    <t>99年07月12闩</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超堝石年）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>7650000(土地及建物之總價）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-03</t>
+  </si>
+  <si>
+    <t>tmpc261</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,70 +145,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段六小段 0580-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區永安段0943-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段0609-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 116</t>
-  </si>
-  <si>
-    <t>2404分之 153</t>
-  </si>
-  <si>
-    <t>100000 分 之292</t>
-  </si>
-  <si>
-    <t>陳端梅</t>
-  </si>
-  <si>
-    <t>孫大千</t>
-  </si>
-  <si>
-    <t>92年10月 15 R</t>
-  </si>
-  <si>
-    <t>72年08月 05日</t>
-  </si>
-  <si>
-    <t>99年07月 12闩</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(超堝石年）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>7，650，000(土 地及建物之總 價）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段六小段 02412-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段六小段 02468-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永安段00558-000 建號</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段01900-000 建號(陽台）</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段02112-000 建號</t>
+    <t>臺北市大安區仁愛段六小段02412000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段六小段02468000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永安段00558000建號</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段01900000建號(陽台）</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段02112000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -121,19 +172,16 @@
     <t>孫大下</t>
   </si>
   <si>
-    <t>92年10月 15 H</t>
-  </si>
-  <si>
-    <t>92年10月 15曰</t>
-  </si>
-  <si>
-    <t>72年08月 05 H</t>
-  </si>
-  <si>
-    <t>99年07月 12日</t>
-  </si>
-  <si>
-    <t>7,650,000(土 地及建物之總 價）</t>
+    <t>92年10月15H</t>
+  </si>
+  <si>
+    <t>92年10月15曰</t>
+  </si>
+  <si>
+    <t>72年08月05H</t>
+  </si>
+  <si>
+    <t>99年07月12日</t>
   </si>
   <si>
     <t>TOYOTAPREVIA</t>
@@ -145,7 +193,7 @@
     <t>納智捷G91SPCA</t>
   </si>
   <si>
-    <t>100 年 04 月28 H</t>
+    <t>100年04月28H</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -169,13 +217,13 @@
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
-    <t>國泰世華商業銀行館前分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行世貿分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行大安分 行</t>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行大安分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -196,12 +244,6 @@
     <t>孫◦揚</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -214,46 +256,16 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>志城投資股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-03</t>
-  </si>
-  <si>
-    <t>tmpc261</t>
-  </si>
-  <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -289,10 +301,7 @@
     <t>保德信人壽</t>
   </si>
   <si>
-    <t>富邦人壽-</t>
-  </si>
-  <si>
-    <t>富邦人壽六年期繳費圓滿終 身壽險丙型</t>
+    <t>富邦人壽六年期繳費圓滿終身壽險丙型</t>
   </si>
   <si>
     <t>富邦人壽重大疾病終身保險</t>
@@ -301,43 +310,43 @@
     <t>富邦人壽分紅養老保險</t>
   </si>
   <si>
-    <t>富邦人壽雙福還本分紅終身 壽險</t>
+    <t>富邦人壽雙福還本分紅終身壽險</t>
   </si>
   <si>
     <t>保德信教育終身壽險</t>
   </si>
   <si>
-    <t>保德信特定傷病終身健康保 險</t>
+    <t>保德信特定傷病終身健康保險</t>
   </si>
   <si>
     <t>保德信癌症終身健康保險</t>
   </si>
   <si>
-    <t>富邦人壽全福還本分紅終身 壽險</t>
-  </si>
-  <si>
-    <t>繳費期滿，保險期間：終身</t>
-  </si>
-  <si>
-    <t>年繳NT$21,787，繳費期間： 20年，保險期間：終身，投保 曰期:96.1.8</t>
-  </si>
-  <si>
-    <t>年繳OT$35,785，繳費期間： 15年，保險期間••終身，投保 日期：96.1.22</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚，年繳 OT$50,835，繳費期間：20年， 保險期間：終身，投保日期： 96.4.3</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚，年繳 NT$110,997，繳費期間:18 年，保險期間：終身，投保日 期：96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚，年繳 NT$8,244，繳費期間：20年， 保險期間：終身，投保曰期： 96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚，年繳 NT$2,859，繳費期間：20年保 險期間：終身，投保日期： 96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚，年繳 OT$35,788，繳費期間：20年， 保險期間：終身，投保日期： 96.4.3</t>
+    <t>富邦人壽全福還本分紅終身壽險</t>
+  </si>
+  <si>
+    <t>繳費期滿保險期間：終身</t>
+  </si>
+  <si>
+    <t>年繳NT$21787繳費期間：20年保險期間：終身投保曰期:96.1.8</t>
+  </si>
+  <si>
+    <t>年繳OT$35785繳費期間：15年保險期間終身投保日期：96.1.22</t>
+  </si>
+  <si>
+    <t>被保險人：孫〇揚年繳OT$50835繳費期間：20年保險期間：終身投保日期：96.4.3</t>
+  </si>
+  <si>
+    <t>被保險人：孫〇揚年繳NT$110997繳費期間:18年保險期間：終身投保日期：96.3.30</t>
+  </si>
+  <si>
+    <t>被保險人：孫〇揚年繳NT$8244繳費期間：20年保險期間：終身投保曰期：96.3.30</t>
+  </si>
+  <si>
+    <t>被保險人：孫〇揚年繳NT$2859繳費期間：20年保險期間：終身投保日期：96.3.30</t>
+  </si>
+  <si>
+    <t>被保險人：孫〇揚年繳OT$35788繳費期間：20年保險期間：終身投保日期：96.4.3</t>
   </si>
 </sst>
 </file>
@@ -696,13 +705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,83 +733,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2025</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>919</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>542.63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="M3" s="2">
+        <v>919</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>8648.49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>919</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -818,25 +911,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -844,25 +937,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>181.48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -870,25 +963,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>1374.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -896,25 +989,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>123.75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -922,25 +1015,25 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>144.99</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -948,22 +1041,22 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>32.33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2">
         <v>700000</v>
@@ -984,19 +1077,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1">
         <v>1548500</v>
@@ -1007,19 +1100,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>2198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>1012000</v>
@@ -1040,19 +1133,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1060,16 +1153,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>2850602</v>
@@ -1080,16 +1173,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>316432</v>
@@ -1100,16 +1193,16 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>46188</v>
@@ -1120,16 +1213,16 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>97631</v>
@@ -1140,16 +1233,16 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2">
         <v>315342</v>
@@ -1160,16 +1253,16 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>645</v>
@@ -1180,16 +1273,16 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2">
         <v>6000000</v>
@@ -1200,16 +1293,16 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2">
         <v>145778</v>
@@ -1220,16 +1313,16 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2">
         <v>625</v>
@@ -1240,16 +1333,16 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2">
         <v>4000000</v>
@@ -1270,43 +1363,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1314,10 +1407,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>23816</v>
@@ -1326,28 +1419,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>919</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
         <v>68</v>
@@ -1368,16 +1461,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1385,13 +1478,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>240000</v>
@@ -1402,13 +1495,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>220000</v>
@@ -1419,13 +1512,13 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>250000</v>
@@ -1436,13 +1529,13 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>230000</v>
@@ -1453,13 +1546,13 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>210000</v>
@@ -1480,16 +1573,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1497,16 +1590,16 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1514,16 +1607,16 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1531,16 +1624,16 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1548,16 +1641,16 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1565,16 +1658,16 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1582,16 +1675,16 @@
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1599,16 +1692,16 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1616,16 +1709,16 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段六小段05800000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市永和區永安段09430000地號</t>
@@ -73,9 +76,6 @@
     <t>桃園縣八德市同福段06090000地號</t>
   </si>
   <si>
-    <t>10000分之116</t>
-  </si>
-  <si>
     <t>2404分之153</t>
   </si>
   <si>
@@ -88,132 +88,93 @@
     <t>孫大千</t>
   </si>
   <si>
-    <t>92年10月15R</t>
-  </si>
-  <si>
     <t>72年08月05日</t>
   </si>
   <si>
     <t>99年07月12闩</t>
   </si>
   <si>
+    <t>受贈</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>受贈</t>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>7650000(土地及建物之總價）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-03</t>
+  </si>
+  <si>
+    <t>tmpc261</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段六小段02412000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>92年10月15H</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段六小段02468000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永安段00558000建號</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段01900000建號(陽台）</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段02112000建號</t>
+  </si>
+  <si>
+    <t>28分之1</t>
+  </si>
+  <si>
+    <t>4320分之9</t>
+  </si>
+  <si>
+    <t>孫大下</t>
+  </si>
+  <si>
+    <t>92年10月15曰</t>
+  </si>
+  <si>
+    <t>72年08月05H</t>
+  </si>
+  <si>
+    <t>99年07月12日</t>
   </si>
   <si>
     <t>(超堝石年）</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>7650000(土地及建物之總價）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-03</t>
-  </si>
-  <si>
-    <t>tmpc261</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段六小段02412000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段六小段02468000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永安段00558000建號</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段01900000建號(陽台）</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段02112000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>28分之1</t>
-  </si>
-  <si>
-    <t>4320分之9</t>
-  </si>
-  <si>
-    <t>孫大下</t>
-  </si>
-  <si>
-    <t>92年10月15H</t>
-  </si>
-  <si>
-    <t>92年10月15曰</t>
-  </si>
-  <si>
-    <t>72年08月05H</t>
-  </si>
-  <si>
-    <t>99年07月12日</t>
-  </si>
-  <si>
-    <t>TOYOTAPREVIA</t>
-  </si>
-  <si>
-    <t>100年10月25曰</t>
-  </si>
-  <si>
     <t>納智捷G91SPCA</t>
   </si>
   <si>
     <t>100年04月28H</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
@@ -226,15 +187,9 @@
     <t>台北富邦商業銀行大安分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>陳卿</t>
   </si>
   <si>
@@ -253,24 +208,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>志城投資股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>手錶</t>
   </si>
   <si>
@@ -283,27 +220,18 @@
     <t>項鍊</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>富邦人壽六年期繳費圓滿終身壽險丙型</t>
+  </si>
+  <si>
+    <t>繳費期滿保險期間：終身</t>
+  </si>
+  <si>
     <t>保德信人壽</t>
   </si>
   <si>
-    <t>富邦人壽六年期繳費圓滿終身壽險丙型</t>
-  </si>
-  <si>
     <t>富邦人壽重大疾病終身保險</t>
   </si>
   <si>
@@ -323,9 +251,6 @@
   </si>
   <si>
     <t>富邦人壽全福還本分紅終身壽險</t>
-  </si>
-  <si>
-    <t>繳費期滿保險期間：終身</t>
   </si>
   <si>
     <t>年繳NT$21787繳費期間：20年保險期間：終身投保曰期:96.1.8</t>
@@ -705,13 +630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,19 +679,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2025</v>
+        <v>542.63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -775,19 +706,19 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>21</v>
@@ -796,45 +727,51 @@
         <v>919</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0636439267886855</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>34.5351039933444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>542.63</v>
+        <v>8648.49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>21</v>
@@ -843,57 +780,16 @@
         <v>919</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8648.49</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2">
-        <v>919</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2">
-        <v>15</v>
+      <c r="P3" s="2">
+        <v>0.00292</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.2535908</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -911,154 +807,128 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>181.48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>181.48</v>
+        <v>1374.6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>1374.6</v>
+        <v>123.75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>123.75</v>
+        <v>144.99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32.33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>144.99</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2">
-        <v>32.33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H5" s="2">
         <v>700000</v>
       </c>
     </row>
@@ -1069,52 +939,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1">
-        <v>2362</v>
+        <v>2198</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="1">
-        <v>1548500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2198</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
         <v>1012000</v>
       </c>
     </row>
@@ -1125,7 +972,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1133,218 +980,198 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2850602</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>2850602</v>
+        <v>316432</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>316432</v>
+        <v>46188</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>46188</v>
+        <v>97631</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2">
-        <v>97631</v>
+        <v>315342</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>315342</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="2">
-        <v>645</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2">
-        <v>6000000</v>
+        <v>145778</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2">
-        <v>145778</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>61</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="2">
         <v>4000000</v>
       </c>
     </row>
@@ -1355,13 +1182,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,16 +1196,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1400,50 +1227,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>23816</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2">
-        <v>238160</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2">
-        <v>919</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1461,41 +1244,41 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="E1" s="1">
+        <v>240000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
-        <v>240000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1504,15 +1287,15 @@
         <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>220000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1521,15 +1304,15 @@
         <v>20</v>
       </c>
       <c r="E4" s="2">
-        <v>250000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1538,23 +1321,6 @@
         <v>20</v>
       </c>
       <c r="E5" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>108</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
         <v>210000</v>
       </c>
     </row>
@@ -1565,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1573,152 +1339,135 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>121</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -70,12 +70,18 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛段六小段05800000地號</t>
+  </si>
+  <si>
     <t>新北市永和區永安段09430000地號</t>
   </si>
   <si>
     <t>桃園縣八德市同福段06090000地號</t>
   </si>
   <si>
+    <t>10000分之116</t>
+  </si>
+  <si>
     <t>2404分之153</t>
   </si>
   <si>
@@ -88,16 +94,22 @@
     <t>孫大千</t>
   </si>
   <si>
+    <t>92年10月15R</t>
+  </si>
+  <si>
     <t>72年08月05日</t>
   </si>
   <si>
     <t>99年07月12闩</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>受贈</t>
   </si>
   <si>
-    <t>買賣</t>
+    <t>(超堝石年）</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -121,33 +133,33 @@
     <t>臺北市大安區仁愛段六小段02412000建號</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛段六小段02468000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永安段00558000建號</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段01900000建號(陽台）</t>
+  </si>
+  <si>
+    <t>桃園縣八德市同福段02112000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>28分之1</t>
+  </si>
+  <si>
+    <t>4320分之9</t>
+  </si>
+  <si>
+    <t>孫大下</t>
+  </si>
+  <si>
     <t>92年10月15H</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段六小段02468000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永安段00558000建號</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段01900000建號(陽台）</t>
-  </si>
-  <si>
-    <t>桃園縣八德市同福段02112000建號</t>
-  </si>
-  <si>
-    <t>28分之1</t>
-  </si>
-  <si>
-    <t>4320分之9</t>
-  </si>
-  <si>
-    <t>孫大下</t>
-  </si>
-  <si>
     <t>92年10月15曰</t>
   </si>
   <si>
@@ -157,9 +169,6 @@
     <t>99年07月12日</t>
   </si>
   <si>
-    <t>(超堝石年）</t>
-  </si>
-  <si>
     <t>納智捷G91SPCA</t>
   </si>
   <si>
@@ -206,6 +215,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>志城投資股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>手錶</t>
@@ -630,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,107 +703,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>542.63</v>
+        <v>2025</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>919</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0636439267886855</v>
+        <v>0.0116</v>
       </c>
       <c r="Q2" s="2">
-        <v>34.5351039933444</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>8648.49</v>
+        <v>542.63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>919</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0636439267886855</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>34.5351039933444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8648.49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="2">
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>919</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>0.00292</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>25.2535908</v>
       </c>
     </row>
@@ -799,137 +867,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>181.48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>919</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>181.48</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1374.6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>919</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0357142857142857</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>49.0928571428571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>123.75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>919</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>123.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>144.99</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>919</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2">
-        <v>1374.6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>123.75</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="O5" s="2">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>144.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <v>32.33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>700000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>919</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
-        <v>144.99</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2">
-        <v>32.33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2">
-        <v>700000</v>
+      <c r="P6" s="2">
+        <v>0.00208333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.0673541666666667</v>
       </c>
     </row>
   </sheetData>
@@ -939,29 +1195,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1">
         <v>2198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2198</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2">
         <v>1012000</v>
       </c>
     </row>
@@ -972,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -980,16 +1259,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1">
         <v>2850602</v>
@@ -997,181 +1276,201 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
-        <v>316432</v>
+        <v>2850602</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>46188</v>
+        <v>316432</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>97631</v>
+        <v>46188</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
-        <v>315342</v>
+        <v>97631</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2">
-        <v>645</v>
+        <v>315342</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
-        <v>6000000</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2">
-        <v>145778</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F9" s="2">
-        <v>625</v>
+        <v>145778</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="F10" s="2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2">
         <v>4000000</v>
       </c>
     </row>
@@ -1182,13 +1481,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,13 +1495,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1227,6 +1526,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23816</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2">
+        <v>238160</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>919</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1579,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1244,13 +1587,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1">
         <v>240000</v>
@@ -1258,69 +1601,86 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>220000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
-        <v>250000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
-        <v>230000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
         <v>210000</v>
       </c>
     </row>
@@ -1331,7 +1691,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1339,135 +1699,152 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
+        <v>120</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>121</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>83</v>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>99年07月12日</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>納智捷G91SPCA</t>
@@ -1195,38 +1198,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1">
-        <v>2198</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1012000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>2198</v>
@@ -1235,13 +1259,34 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="2">
         <v>1012000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>919</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1259,13 +1304,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1279,13 +1324,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1299,13 +1344,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1319,13 +1364,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1339,13 +1384,13 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1359,16 +1404,16 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2">
         <v>315342</v>
@@ -1379,13 +1424,13 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1399,16 +1444,16 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2">
         <v>6000000</v>
@@ -1419,16 +1464,16 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2">
         <v>145778</v>
@@ -1439,16 +1484,16 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2">
         <v>625</v>
@@ -1459,16 +1504,16 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2">
         <v>4000000</v>
@@ -1495,13 +1540,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1533,7 +1578,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1545,13 +1590,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2">
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1587,7 +1632,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1604,7 +1649,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1621,7 +1666,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1638,7 +1683,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1655,7 +1700,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1672,7 +1717,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1699,16 +1744,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1716,16 +1761,16 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1733,16 +1778,16 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1750,16 +1795,16 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1767,16 +1812,16 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1784,16 +1829,16 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1801,16 +1846,16 @@
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1818,16 +1863,16 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1835,16 +1880,16 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -169,6 +169,9 @@
     <t>99年07月12日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -176,6 +179,9 @@
   </si>
   <si>
     <t>100年04月28H</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -952,7 +958,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1005,7 +1011,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1058,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>33</v>
@@ -1111,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>33</v>
@@ -1164,7 +1170,7 @@
         <v>700000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>33</v>
@@ -1209,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1250,7 +1256,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>2198</v>
@@ -1259,7 +1265,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -1268,7 +1274,7 @@
         <v>1012000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1304,13 +1310,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1324,13 +1330,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1344,13 +1350,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1364,13 +1370,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1384,13 +1390,13 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1404,16 +1410,16 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
         <v>315342</v>
@@ -1424,13 +1430,13 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1444,16 +1450,16 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2">
         <v>6000000</v>
@@ -1464,16 +1470,16 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2">
         <v>145778</v>
@@ -1484,16 +1490,16 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2">
         <v>625</v>
@@ -1504,16 +1510,16 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2">
         <v>4000000</v>
@@ -1540,13 +1546,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1578,7 +1584,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1590,13 +1596,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2">
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1632,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1649,7 +1655,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1666,7 +1672,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1683,7 +1689,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1700,7 +1706,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1717,7 +1723,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1744,16 +1750,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1761,16 +1767,16 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1778,16 +1784,16 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1795,16 +1801,16 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1812,16 +1818,16 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1829,16 +1835,16 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1846,16 +1852,16 @@
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1863,16 +1869,16 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1880,16 +1886,16 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -184,30 +184,39 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行大安分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行世貿分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>陳卿</t>
   </si>
   <si>
@@ -217,13 +226,13 @@
     <t>孫◦揚</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>志城投資股份有限公司</t>
@@ -1302,13 +1311,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1319,24 +1328,45 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2850602</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1344,19 +1374,40 @@
       <c r="F2" s="2">
         <v>2850602</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>919</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1364,19 +1415,40 @@
       <c r="F3" s="2">
         <v>316432</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>919</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1384,19 +1456,40 @@
       <c r="F4" s="2">
         <v>46188</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>919</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1404,39 +1497,81 @@
       <c r="F5" s="2">
         <v>97631</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>919</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2">
         <v>315342</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>919</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1444,85 +1579,190 @@
       <c r="F7" s="2">
         <v>645</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>919</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>919</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2">
         <v>145778</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>919</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2">
         <v>625</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>919</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2">
         <v>4000000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
+        <v>919</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1546,13 +1786,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1584,7 +1824,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1596,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>238160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1638,7 +1878,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1655,7 +1895,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1672,7 +1912,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1689,7 +1929,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1706,7 +1946,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1723,7 +1963,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1750,16 +1990,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1767,16 +2007,16 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1784,16 +2024,16 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1801,16 +2041,16 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1818,16 +2058,16 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1835,16 +2075,16 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1852,16 +2092,16 @@
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1869,16 +2109,16 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1886,16 +2126,16 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>項鍊</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1870,27 +1873,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>104</v>
       </c>
@@ -1906,8 +1930,29 @@
       <c r="E2" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>919</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>105</v>
       </c>
@@ -1923,8 +1968,29 @@
       <c r="E3" s="2">
         <v>220000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>919</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>106</v>
       </c>
@@ -1940,8 +2006,29 @@
       <c r="E4" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2">
+        <v>919</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>107</v>
       </c>
@@ -1957,8 +2044,29 @@
       <c r="E5" s="2">
         <v>230000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
+        <v>919</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>108</v>
       </c>
@@ -1973,6 +2081,27 @@
       </c>
       <c r="E6" s="2">
         <v>210000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2">
+        <v>919</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1990,16 +2119,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2007,16 +2136,16 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2024,16 +2153,16 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2041,16 +2170,16 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2058,16 +2187,16 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2075,16 +2204,16 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2092,16 +2221,16 @@
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2109,16 +2238,16 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2126,16 +2255,16 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
+++ b/legislator/property/output/normal/孫大千_2012-03-03_財產申報表_tmpc261.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -253,21 +253,21 @@
     <t>項鍊</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>保德信人壽</t>
+  </si>
+  <si>
     <t>富邦人壽六年期繳費圓滿終身壽險丙型</t>
   </si>
   <si>
-    <t>繳費期滿保險期間：終身</t>
-  </si>
-  <si>
-    <t>保德信人壽</t>
-  </si>
-  <si>
     <t>富邦人壽重大疾病終身保險</t>
   </si>
   <si>
@@ -289,25 +289,7 @@
     <t>富邦人壽全福還本分紅終身壽險</t>
   </si>
   <si>
-    <t>年繳NT$21787繳費期間：20年保險期間：終身投保曰期:96.1.8</t>
-  </si>
-  <si>
-    <t>年繳OT$35785繳費期間：15年保險期間終身投保日期：96.1.22</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚年繳OT$50835繳費期間：20年保險期間：終身投保日期：96.4.3</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚年繳NT$110997繳費期間:18年保險期間：終身投保日期：96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚年繳NT$8244繳費期間：20年保險期間：終身投保曰期：96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚年繳NT$2859繳費期間：20年保險期間：終身投保日期：96.3.30</t>
-  </si>
-  <si>
-    <t>被保險人：孫〇揚年繳OT$35788繳費期間：20年保險期間：終身投保日期：96.4.3</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2111,49 +2093,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>919</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>82</v>
@@ -2164,13 +2182,31 @@
       <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>919</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>83</v>
@@ -2179,15 +2215,33 @@
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>919</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>84</v>
@@ -2196,15 +2250,33 @@
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>919</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>85</v>
@@ -2213,15 +2285,33 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2">
+        <v>919</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>86</v>
@@ -2230,15 +2320,33 @@
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <v>919</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>87</v>
@@ -2247,15 +2355,33 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2">
+        <v>919</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>88</v>
@@ -2264,7 +2390,25 @@
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2">
+        <v>919</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
